--- a/gmhx/src/main/resources/importTemplate/roleauthority.xlsx
+++ b/gmhx/src/main/resources/importTemplate/roleauthority.xlsx
@@ -16,21 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>菜单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物料id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品类id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描叙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品类编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,26 +383,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
